--- a/src/main/java/com/datadrivenframework/data/TestData.xlsx
+++ b/src/main/java/com/datadrivenframework/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Related\Sample Framework\DataDrivenFramework\src\main\java\com\datadrivenframework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D0E5AB6-FA8C-44BD-B512-5ED7CB34ADAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E21D848B-BC8C-42A6-9333-7D983938ED80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,13 +45,13 @@
     <t>testautomation</t>
   </si>
   <si>
-    <t>addwidget</t>
-  </si>
-  <si>
     <t>url to add social gadget</t>
   </si>
   <si>
     <t>https://staging-open-social-gadget.eu-gb.mybluemix.net/dng-widget?tenantId=323cc76c-c25a-4c37-8b9d-1e71f8a7f898</t>
+  </si>
+  <si>
+    <t>addwidgettodashboard</t>
   </si>
 </sst>
 </file>
@@ -399,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -420,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,7 +435,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -445,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/datadrivenframework/data/TestData.xlsx
+++ b/src/main/java/com/datadrivenframework/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Related\Sample Framework\DataDrivenFramework\src\main\java\com\datadrivenframework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E21D848B-BC8C-42A6-9333-7D983938ED80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C4294DE-7144-4925-80C6-B336AA17AADA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>addwidgettodashboard</t>
+  </si>
+  <si>
+    <t>adding_users</t>
+  </si>
+  <si>
+    <t>url to login</t>
+  </si>
+  <si>
+    <t>https://admin-dashboard.deployment-cluster.eu-gb.containers.appdomain.cloud/preauth?tenantid=rqatest-https://admin-dashboard.deployment-cluster.eu-gb.containers.appdomain.cloud/preauth?tenantid=rqatest-b3f1bad3ff4f</t>
+  </si>
+  <si>
+    <t>prambade@in.ibm.com</t>
+  </si>
+  <si>
+    <t>mgadgy3o5738bq5p</t>
   </si>
 </sst>
 </file>
@@ -395,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -418,9 +433,6 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -434,24 +446,68 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00F7E21D-9A40-42C3-8937-38F321A4864F}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00F7E21D-9A40-42C3-8937-38F321A4864F}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{A24B2DB7-7EE0-4900-98D4-73CCA95106BB}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{88837D68-ED49-4781-95E3-A52A828F4A44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>